--- a/biology/Microbiologie/Cristidiscoidea/Cristidiscoidea.xlsx
+++ b/biology/Microbiologie/Cristidiscoidea/Cristidiscoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rotosphaerida, Nucleariae
 Les Cristidiscoidea, Rotosphaerida ou Nucleariae, sont un clade d'Holomycota basal proposé comme groupe frère des champignons. Il inclut notamment les taxons Fonticula et Nucleariida.
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre des Opisthokonta selon Tedersoo et al. est le suivant[1],[2],[3] :
-Puisque Cristidiscoidea est proche de la divergence entre les champignons et les animaux, son étude peut fournir des informations sur l'évolution des Opisthokontes, ainsi que sur la multicellularité des moisissures visqueuses[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre des Opisthokonta selon Tedersoo et al. est le suivant :
+Puisque Cristidiscoidea est proche de la divergence entre les champignons et les animaux, son étude peut fournir des informations sur l'évolution des Opisthokontes, ainsi que sur la multicellularité des moisissures visqueuses.
 </t>
         </is>
       </c>
